--- a/riba_light_report_output.xlsx
+++ b/riba_light_report_output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="distribution" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,15 +126,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RibaReport" displayName="RibaReport" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RibaReport" displayName="RibaReport" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="level"/>
     <tableColumn id="2" name="grade"/>
     <tableColumn id="3" name="class_no"/>
-    <tableColumn id="4" name="rs"/>
-    <tableColumn id="5" name="target"/>
-    <tableColumn id="6" name="asp"/>
+    <tableColumn id="4" name="audience"/>
+    <tableColumn id="5" name="rs"/>
+    <tableColumn id="6" name="target"/>
+    <tableColumn id="7" name="asp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RibaDistribution" displayName="RibaDistribution" ref="A1:J2" headerRowCount="1">
+  <autoFilter ref="A1:J2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="level"/>
+    <tableColumn id="2" name="grade"/>
+    <tableColumn id="3" name="class_no"/>
+    <tableColumn id="4" name="audience"/>
+    <tableColumn id="5" name="item_no"/>
+    <tableColumn id="6" name="count_a"/>
+    <tableColumn id="7" name="count_b"/>
+    <tableColumn id="8" name="count_total"/>
+    <tableColumn id="9" name="pct_a"/>
+    <tableColumn id="10" name="pct_b"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -440,9 +461,10 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="55" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="55" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,15 +485,20 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>audience</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>rs</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>asp</t>
         </is>
@@ -484,6 +511,106 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>class_no</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>audience</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>item_no</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>count_a</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>count_b</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>count_total</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pct_a</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pct_b</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
